--- a/bin/excel/SpanishEnglish-VERBS5.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB91127B-C2DA-4A55-A6DB-2CFCF15EA474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41876B22-92E8-4787-BBDF-522CC416139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>switch</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>luchar, esforzarse</t>
   </si>
   <si>
-    <t>lanzar(emitir)</t>
-  </si>
-  <si>
     <t>invertir</t>
   </si>
   <si>
@@ -250,6 +244,102 @@
   </si>
   <si>
     <t>assist/help</t>
+  </si>
+  <si>
+    <t>su'etch</t>
+  </si>
+  <si>
+    <t>serraun</t>
+  </si>
+  <si>
+    <t>bleim</t>
+  </si>
+  <si>
+    <t>kemplein</t>
+  </si>
+  <si>
+    <t>ingeish/moroveit</t>
+  </si>
+  <si>
+    <t>ku'out</t>
+  </si>
+  <si>
+    <t>ekn'aledsh</t>
+  </si>
+  <si>
+    <t>dism'ies</t>
+  </si>
+  <si>
+    <t>estr'es</t>
+  </si>
+  <si>
+    <t>bader</t>
+  </si>
+  <si>
+    <t>pez'es</t>
+  </si>
+  <si>
+    <t>sut/surop</t>
+  </si>
+  <si>
+    <t>tai</t>
+  </si>
+  <si>
+    <t>as'iest/jelp</t>
+  </si>
+  <si>
+    <t>gleans</t>
+  </si>
+  <si>
+    <t>ueik op</t>
+  </si>
+  <si>
+    <t>apiol</t>
+  </si>
+  <si>
+    <t>chalensh</t>
+  </si>
+  <si>
+    <t>ges</t>
+  </si>
+  <si>
+    <t>rreken uif</t>
+  </si>
+  <si>
+    <t>sobm'it</t>
+  </si>
+  <si>
+    <t>ficher</t>
+  </si>
+  <si>
+    <t>leand</t>
+  </si>
+  <si>
+    <t>solf</t>
+  </si>
+  <si>
+    <t>estr'ogol</t>
+  </si>
+  <si>
+    <t>inv'est</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>sheft</t>
+  </si>
+  <si>
+    <t>lait</t>
+  </si>
+  <si>
+    <t>reis</t>
+  </si>
+  <si>
+    <t>lanzar(throw), lanzar(para enlazar algo)</t>
   </si>
 </sst>
 </file>
@@ -609,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,13 +1134,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1100,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
